--- a/data/meta/Descriptive of the variables.xlsx
+++ b/data/meta/Descriptive of the variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cunie\OneDrive - University of Copenhagen\Uni\4 år\4 IntML\IntML_Pro1\data\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB2A2F7-4F05-49B4-934D-64C7EE60206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0535FBE4-86C4-45C2-8AC9-C69392B7D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B720401-42BD-4127-ACEB-1F5D8FF679CD}"/>
+    <workbookView xWindow="28680" yWindow="-6420" windowWidth="16440" windowHeight="28320" xr2:uid="{9B720401-42BD-4127-ACEB-1F5D8FF679CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
